--- a/0_1_Output_Data/6_ifo_qoq_error_series_ifoCASTset/ifo_qoq_errors_first_eval_ifoCASTset.xlsx
+++ b/0_1_Output_Data/6_ifo_qoq_error_series_ifoCASTset/ifo_qoq_errors_first_eval_ifoCASTset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
   <si>
     <t>2010-11-12 00:00:00_diff</t>
@@ -464,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,10 +501,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.4352029183766609</v>
@@ -516,9 +528,9 @@
         <v>0.6818677821223996</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.280777696258258</v>
@@ -542,9 +554,9 @@
         <v>1.192512792889843</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-0.01813221787760042</v>
@@ -562,9 +574,9 @@
         <v>0.8925127928898435</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-0.1707092582566427</v>
@@ -588,9 +600,9 @@
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.2925127928898435</v>
@@ -608,9 +620,9 @@
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.1785643430426489</v>
@@ -634,9 +646,9 @@
         <v>-0.1996974281391924</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>-0.0837572512271369</v>
@@ -654,9 +666,9 @@
         <v>-0.09969742813917826</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.4608782057348194</v>
@@ -680,9 +692,9 @@
         <v>0.2513073288242555</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>-0.4996974281391754</v>
@@ -700,9 +712,9 @@
         <v>0.151307328824247</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.1813625758282837</v>
@@ -726,9 +738,9 @@
         <v>-0.0269234262875761</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0.2013073288242442</v>
@@ -746,9 +758,9 @@
         <v>0.02207657371243049</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>-0.07125936757448281</v>
@@ -772,9 +784,9 @@
         <v>-0.126966924700923</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0.02307657371240679</v>
@@ -792,9 +804,9 @@
         <v>-0.2069669247009072</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0.0835432859823011</v>
@@ -818,9 +830,9 @@
         <v>0.4326764833261072</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>-0.05696692470090148</v>
@@ -838,9 +850,9 @@
         <v>0.4826764833261045</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0.4027192445571373</v>
@@ -867,9 +879,9 @@
         <v>0.4720044792832994</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>-0.1515848892748725</v>
@@ -893,9 +905,9 @@
         <v>0.4210044792833259</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0.6988415319442993</v>
@@ -915,10 +927,22 @@
       <c r="G19">
         <v>0.3220044792833222</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19">
+        <v>2.521807318894689</v>
+      </c>
+      <c r="I19">
+        <v>9.990957649751982</v>
+      </c>
+      <c r="J19">
+        <v>-8.180304150385487</v>
+      </c>
+      <c r="K19">
+        <v>-0.04063260340633762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0.1826764833261187</v>
@@ -935,10 +959,22 @@
       <c r="F20">
         <v>0.2720044792833136</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20">
+        <v>2.521807318894706</v>
+      </c>
+      <c r="H20">
+        <v>9.990957649752</v>
+      </c>
+      <c r="I20">
+        <v>-8.180304150385469</v>
+      </c>
+      <c r="J20">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>-0.3243526457088434</v>
@@ -952,10 +988,22 @@
       <c r="E21">
         <v>0.3220044792833222</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="F21">
+        <v>2.571807318894714</v>
+      </c>
+      <c r="G21">
+        <v>10.04095764975201</v>
+      </c>
+      <c r="H21">
+        <v>-8.130304150385461</v>
+      </c>
+      <c r="I21">
+        <v>0.009367396593688015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>-0.02531042853141789</v>
@@ -966,10 +1014,22 @@
       <c r="D22">
         <v>0.2720044792833136</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22">
+        <v>2.521807318894706</v>
+      </c>
+      <c r="F22">
+        <v>9.990957649752</v>
+      </c>
+      <c r="G22">
+        <v>-8.180304150385469</v>
+      </c>
+      <c r="H22">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>-0.1841593416869248</v>
@@ -977,13 +1037,61 @@
       <c r="C23">
         <v>0.07200447928330793</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="D23">
+        <v>2.471807318894706</v>
+      </c>
+      <c r="E23">
+        <v>10.039957649752</v>
+      </c>
+      <c r="F23">
+        <v>-8.131304150385466</v>
+      </c>
+      <c r="G23">
+        <v>0.008367396593683296</v>
+      </c>
+      <c r="H23">
+        <v>2.155937868393076</v>
+      </c>
+      <c r="I23">
+        <v>-1.284092118130254</v>
+      </c>
+      <c r="J23">
+        <v>-1.345266296544455</v>
+      </c>
+      <c r="K23">
+        <v>0.6961896406117992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0.05200447928335454</v>
+      </c>
+      <c r="C24">
+        <v>2.461807318894701</v>
+      </c>
+      <c r="D24">
+        <v>9.980957649751991</v>
+      </c>
+      <c r="E24">
+        <v>-8.150304150385457</v>
+      </c>
+      <c r="F24">
+        <v>-0.0006326034063171004</v>
+      </c>
+      <c r="G24">
+        <v>2.206937868393077</v>
+      </c>
+      <c r="H24">
+        <v>-1.233092118130252</v>
+      </c>
+      <c r="I24">
+        <v>-1.314266296544464</v>
+      </c>
+      <c r="J24">
+        <v>0.6871896406117988</v>
       </c>
     </row>
   </sheetData>
